--- a/documentacao/Levantamento de dados/Preços.Lista de produtos.Analytics.xlsx
+++ b/documentacao/Levantamento de dados/Preços.Lista de produtos.Analytics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Levantamento de dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Plant.ai\documentacao\Levantamento de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Tipos de plantas</t>
   </si>
@@ -216,21 +216,6 @@
   <si>
     <t>Muito frio</t>
   </si>
-  <si>
-    <t>TOMATE</t>
-  </si>
-  <si>
-    <t>MORANGO</t>
-  </si>
-  <si>
-    <t>SALSA</t>
-  </si>
-  <si>
-    <t>PIMENTA</t>
-  </si>
-  <si>
-    <t>ORQUIDEA</t>
-  </si>
 </sst>
 </file>
 
@@ -412,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -557,6 +542,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,7 +567,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -600,7 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +642,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +760,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$A$23</c:f>
+              <c:f>Analytics!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -849,7 +850,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$A$24:$A$32</c:f>
+              <c:f>Analytics!$B$25:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -895,7 +896,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$B$23</c:f>
+              <c:f>Analytics!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -983,7 +984,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$B$24:$B$32</c:f>
+              <c:f>Analytics!$D$25:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1029,7 +1030,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$C$23</c:f>
+              <c:f>Analytics!$E$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1119,7 +1120,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$C$24:$C$32</c:f>
+              <c:f>Analytics!$E$25:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1165,7 +1166,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$D$23</c:f>
+              <c:f>Analytics!$F$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1253,7 +1254,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$D$24:$D$32</c:f>
+              <c:f>Analytics!$F$25:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1299,7 +1300,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$E$23</c:f>
+              <c:f>Analytics!$G$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1389,7 +1390,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$E$24:$E$32</c:f>
+              <c:f>Analytics!$G$25:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1717,7 +1718,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$A$42</c:f>
+              <c:f>Analytics!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1807,7 +1808,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$A$43:$A$51</c:f>
+              <c:f>Analytics!$B$44:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1853,7 +1854,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$B$42</c:f>
+              <c:f>Analytics!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1941,7 +1942,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$B$43:$B$51</c:f>
+              <c:f>Analytics!$D$44:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1987,7 +1988,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$C$42</c:f>
+              <c:f>Analytics!$E$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2077,7 +2078,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$C$43:$C$51</c:f>
+              <c:f>Analytics!$E$44:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2123,7 +2124,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$D$42</c:f>
+              <c:f>Analytics!$F$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2211,7 +2212,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$D$43:$D$51</c:f>
+              <c:f>Analytics!$F$44:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2257,7 +2258,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$E$42</c:f>
+              <c:f>Analytics!$G$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2347,7 +2348,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$E$43:$E$51</c:f>
+              <c:f>Analytics!$G$44:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2705,7 +2706,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$A$59</c:f>
+              <c:f>Analytics!$B$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2795,7 +2796,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$A$60:$A$68</c:f>
+              <c:f>Analytics!$B$61:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2841,7 +2842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$B$59</c:f>
+              <c:f>Analytics!$D$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2929,7 +2930,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$B$60:$B$68</c:f>
+              <c:f>Analytics!$D$61:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2975,7 +2976,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$C$59</c:f>
+              <c:f>Analytics!$E$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3065,7 +3066,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$C$60:$C$68</c:f>
+              <c:f>Analytics!$E$61:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3111,7 +3112,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$D$59</c:f>
+              <c:f>Analytics!$F$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3199,7 +3200,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$D$60:$D$68</c:f>
+              <c:f>Analytics!$F$61:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3245,7 +3246,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$E$59</c:f>
+              <c:f>Analytics!$G$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3335,7 +3336,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$E$60:$E$68</c:f>
+              <c:f>Analytics!$G$61:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3691,7 +3692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$A$77</c:f>
+              <c:f>Analytics!$B$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3781,7 +3782,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$A$78:$A$86</c:f>
+              <c:f>Analytics!$B$79:$B$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3827,7 +3828,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$B$77</c:f>
+              <c:f>Analytics!$D$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3915,7 +3916,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$B$78:$B$86</c:f>
+              <c:f>Analytics!$D$79:$D$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3961,7 +3962,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$C$77</c:f>
+              <c:f>Analytics!$E$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4051,7 +4052,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$C$78:$C$86</c:f>
+              <c:f>Analytics!$E$79:$E$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4097,7 +4098,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$D$77</c:f>
+              <c:f>Analytics!$F$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4185,7 +4186,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$D$78:$D$86</c:f>
+              <c:f>Analytics!$F$79:$F$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4231,7 +4232,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$E$77</c:f>
+              <c:f>Analytics!$G$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4321,7 +4322,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$E$78:$E$86</c:f>
+              <c:f>Analytics!$G$79:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4677,7 +4678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$A$93</c:f>
+              <c:f>Analytics!$B$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4767,7 +4768,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$A$94:$A$102</c:f>
+              <c:f>Analytics!$B$95:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4813,7 +4814,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$B$93</c:f>
+              <c:f>Analytics!$D$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4901,7 +4902,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$B$94:$B$102</c:f>
+              <c:f>Analytics!$D$95:$D$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4947,7 +4948,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$C$93</c:f>
+              <c:f>Analytics!$E$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5037,7 +5038,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$C$94:$C$102</c:f>
+              <c:f>Analytics!$E$95:$E$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5083,7 +5084,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$D$93</c:f>
+              <c:f>Analytics!$F$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5171,7 +5172,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$D$94:$D$102</c:f>
+              <c:f>Analytics!$F$95:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5217,7 +5218,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analytics!$E$93</c:f>
+              <c:f>Analytics!$G$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5307,7 +5308,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Analytics!$E$94:$E$102</c:f>
+              <c:f>Analytics!$G$95:$G$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8595,15 +8596,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8625,15 +8626,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8655,15 +8656,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8685,15 +8686,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8715,15 +8716,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9667,1243 +9668,1234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="40" t="s">
+    <row r="3" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="I3" s="30"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="4" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41">
+      <c r="D4" s="40">
         <v>10</v>
       </c>
-      <c r="C3" s="42">
-        <f ca="1">_xlfn.QUARTILE.INC(B3:F3,1)</f>
+      <c r="E4" s="41">
+        <f ca="1">_xlfn.QUARTILE.INC(D4:H4,1)</f>
         <v>16</v>
       </c>
-      <c r="D3" s="33">
-        <f ca="1">AVERAGE(B3:F3)</f>
+      <c r="F4" s="32">
+        <f ca="1">AVERAGE(D4:H4)</f>
         <v>22</v>
       </c>
-      <c r="E3" s="45">
-        <f ca="1">_xlfn.QUARTILE.INC(B3:F3,3)</f>
+      <c r="G4" s="44">
+        <f ca="1">_xlfn.QUARTILE.INC(D4:H4,3)</f>
         <v>28</v>
       </c>
-      <c r="F3" s="34">
+      <c r="H4" s="47">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
+      <c r="I4" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="5" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="41">
+      <c r="D5" s="40">
         <v>9</v>
       </c>
-      <c r="C4" s="42">
-        <f ca="1">_xlfn.QUARTILE.INC(B4:F4,1)</f>
+      <c r="E5" s="41">
+        <f ca="1">_xlfn.QUARTILE.INC(D5:H5,1)</f>
         <v>14.25</v>
       </c>
-      <c r="D4" s="33">
-        <f ca="1">AVERAGE(B4:F4)</f>
+      <c r="F5" s="32">
+        <f ca="1">AVERAGE(D5:H5)</f>
         <v>19.5</v>
       </c>
-      <c r="E4" s="45">
-        <f ca="1">_xlfn.QUARTILE.INC(B4:F4,3)</f>
+      <c r="G5" s="44">
+        <f ca="1">_xlfn.QUARTILE.INC(D5:H5,3)</f>
         <v>24.75</v>
       </c>
-      <c r="F4" s="34">
+      <c r="H5" s="47">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
+      <c r="I5" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="6" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C6" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="41">
+      <c r="D6" s="40">
         <v>8</v>
       </c>
-      <c r="C5" s="42">
-        <f ca="1">_xlfn.QUARTILE.INC(B5:F5,1)</f>
+      <c r="E6" s="41">
+        <f ca="1">_xlfn.QUARTILE.INC(D6:H6,1)</f>
         <v>12</v>
       </c>
-      <c r="D5" s="33">
-        <f ca="1">AVERAGE(B5:F5)</f>
+      <c r="F6" s="32">
+        <f ca="1">AVERAGE(D6:H6)</f>
         <v>16</v>
       </c>
-      <c r="E5" s="45">
-        <f ca="1">_xlfn.QUARTILE.INC(B5:F5,3)</f>
+      <c r="G6" s="44">
+        <f ca="1">_xlfn.QUARTILE.INC(D6:H6,3)</f>
         <v>20</v>
       </c>
-      <c r="F5" s="34">
+      <c r="H6" s="47">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
+      <c r="I6" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="7" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41">
+      <c r="D7" s="40">
         <v>18</v>
       </c>
-      <c r="C6" s="42">
-        <f ca="1">_xlfn.QUARTILE.INC(B6:F6,1)</f>
+      <c r="E7" s="41">
+        <f ca="1">_xlfn.QUARTILE.INC(D7:H7,1)</f>
         <v>22.25</v>
       </c>
-      <c r="D6" s="33">
-        <f ca="1">AVERAGE(B6:F6)</f>
+      <c r="F7" s="32">
+        <f ca="1">AVERAGE(D7:H7)</f>
         <v>26.5</v>
       </c>
-      <c r="E6" s="45">
-        <f ca="1">_xlfn.QUARTILE.INC(B6:F6,3)</f>
+      <c r="G7" s="44">
+        <f ca="1">_xlfn.QUARTILE.INC(D7:H7,3)</f>
         <v>30.75</v>
       </c>
-      <c r="F6" s="34">
+      <c r="H7" s="47">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
+      <c r="I7" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="8" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="41">
+      <c r="D8" s="40">
         <v>15</v>
       </c>
-      <c r="C7" s="42">
-        <f ca="1">_xlfn.QUARTILE.INC(B7:F7,1)</f>
+      <c r="E8" s="41">
+        <f ca="1">_xlfn.QUARTILE.INC(D8:H8,1)</f>
         <v>20</v>
       </c>
-      <c r="D7" s="33">
-        <f ca="1">AVERAGE(B7:F7)</f>
+      <c r="F8" s="32">
+        <f ca="1">AVERAGE(D8:H8)</f>
         <v>25</v>
       </c>
-      <c r="E7" s="45">
-        <f ca="1">_xlfn.QUARTILE.INC(B7:F7,3)</f>
+      <c r="G8" s="44">
+        <f ca="1">_xlfn.QUARTILE.INC(D8:H8,3)</f>
         <v>30</v>
       </c>
-      <c r="F7" s="34">
+      <c r="H8" s="47">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I8" s="22"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="31">
+        <v>60</v>
+      </c>
+      <c r="E16" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D16:H16,1)</f>
         <v>65</v>
       </c>
+      <c r="F16" s="32">
+        <f ca="1">AVERAGE(D16:H16)</f>
+        <v>70</v>
+      </c>
+      <c r="G16" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D16:H16,3)</f>
+        <v>75</v>
+      </c>
+      <c r="H16" s="33">
+        <v>80</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="31">
+        <v>60</v>
+      </c>
+      <c r="E17" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D17:H17,1)</f>
+        <v>63.75</v>
+      </c>
+      <c r="F17" s="32">
+        <f ca="1">AVERAGE(D17:H17)</f>
+        <v>67.5</v>
+      </c>
+      <c r="G17" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D17:H17,3)</f>
+        <v>71.25</v>
+      </c>
+      <c r="H17" s="33">
+        <v>75</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>55</v>
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31">
+        <v>80</v>
+      </c>
+      <c r="E18" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D18:H18,1)</f>
+        <v>82</v>
+      </c>
+      <c r="F18" s="32">
+        <f ca="1">AVERAGE(D18:H18)</f>
+        <v>84</v>
+      </c>
+      <c r="G18" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D18:H18,3)</f>
+        <v>86</v>
+      </c>
+      <c r="H18" s="33">
+        <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="32">
+    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="31">
         <v>60</v>
       </c>
-      <c r="C15" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B15:F15,1)</f>
+      <c r="E19" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D19:H19,1)</f>
         <v>65</v>
       </c>
-      <c r="D15" s="33">
-        <f ca="1">AVERAGE(B15:F15)</f>
+      <c r="F19" s="32">
+        <f ca="1">AVERAGE(D19:H19)</f>
         <v>70</v>
       </c>
-      <c r="E15" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B15:F15,3)</f>
+      <c r="G19" s="37">
+        <f ca="1">_xlfn.QUARTILE.INC(D19:H19,3)</f>
         <v>75</v>
       </c>
-      <c r="F15" s="34">
+      <c r="H19" s="33">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="32">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B16:F16,1)</f>
-        <v>63.75</v>
-      </c>
-      <c r="D16" s="33">
-        <f ca="1">AVERAGE(B16:F16)</f>
-        <v>67.5</v>
-      </c>
-      <c r="E16" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B16:F16,3)</f>
-        <v>71.25</v>
-      </c>
-      <c r="F16" s="34">
-        <v>75</v>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="32">
-        <v>80</v>
-      </c>
-      <c r="C17" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B17:F17,1)</f>
-        <v>82</v>
-      </c>
-      <c r="D17" s="33">
-        <f ca="1">AVERAGE(B17:F17)</f>
-        <v>84</v>
-      </c>
-      <c r="E17" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B17:F17,3)</f>
-        <v>86</v>
-      </c>
-      <c r="F17" s="34">
-        <v>88</v>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E33" ca="1" si="0">_xlfn.QUARTILE.INC(D25:G25,1)</f>
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F33" ca="1" si="1">_xlfn.QUARTILE.INC(D25:G25,3)</f>
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="32">
-        <v>60</v>
-      </c>
-      <c r="C18" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B18:F18,1)</f>
-        <v>65</v>
-      </c>
-      <c r="D18" s="33">
-        <f ca="1">AVERAGE(B18:F18)</f>
-        <v>70</v>
-      </c>
-      <c r="E18" s="38">
-        <f ca="1">_xlfn.QUARTILE.INC(B18:F18,3)</f>
-        <v>75</v>
-      </c>
-      <c r="F18" s="34">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="D26">
         <v>10</v>
       </c>
-      <c r="C24">
-        <f t="shared" ref="C24:C32" ca="1" si="0">_xlfn.QUARTILE.INC(B24:E24,1)</f>
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D32" ca="1" si="1">_xlfn.QUARTILE.INC(B24:E24,3)</f>
-        <v>28</v>
-      </c>
-      <c r="E24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
+      <c r="E26">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D25">
+      <c r="F26">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E25">
+      <c r="G26">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="E27">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D26">
+      <c r="F27">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E26">
+      <c r="G27">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="D28">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="E28">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D27">
+      <c r="F28">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E27">
+      <c r="G28">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="E29">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D28">
+      <c r="F29">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E28">
+      <c r="G29">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="D30">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="E30">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D29">
+      <c r="F30">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E29">
+      <c r="G30">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="E31">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D30">
+      <c r="F31">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E30">
+      <c r="G31">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="E32">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D31">
+      <c r="F32">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E31">
+      <c r="G32">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>24</v>
       </c>
-      <c r="B32">
+      <c r="D33">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="E33">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="D32">
+      <c r="F33">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
-      <c r="E32">
+      <c r="G33">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D43" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E43" t="s">
         <v>60</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F43" t="s">
         <v>59</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>12</v>
       </c>
-      <c r="B43">
+      <c r="D44">
         <v>9</v>
       </c>
-      <c r="C43">
-        <f t="shared" ref="C43:C51" ca="1" si="2">_xlfn.QUARTILE.INC(B43:E43,1)</f>
+      <c r="E44">
+        <f t="shared" ref="E44:E52" ca="1" si="2">_xlfn.QUARTILE.INC(D44:G44,1)</f>
         <v>14.25</v>
       </c>
-      <c r="D43">
-        <f t="shared" ref="D43:D51" ca="1" si="3">_xlfn.QUARTILE.INC(B43:E43,3)</f>
+      <c r="F44">
+        <f t="shared" ref="F44:F52" ca="1" si="3">_xlfn.QUARTILE.INC(D44:G44,3)</f>
         <v>24.75</v>
       </c>
-      <c r="E43">
+      <c r="G44">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>19</v>
       </c>
-      <c r="B44">
+      <c r="D45">
         <v>9</v>
       </c>
-      <c r="C44">
+      <c r="E45">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D44">
+      <c r="F45">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E44">
+      <c r="G45">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>22</v>
       </c>
-      <c r="B45">
+      <c r="D46">
         <v>9</v>
       </c>
-      <c r="C45">
+      <c r="E46">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D45">
+      <c r="F46">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E45">
+      <c r="G46">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>31</v>
       </c>
-      <c r="B46">
+      <c r="D47">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="E47">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D46">
+      <c r="F47">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E46">
+      <c r="G47">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>26</v>
       </c>
-      <c r="B47">
+      <c r="D48">
         <v>9</v>
       </c>
-      <c r="C47">
+      <c r="E48">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D47">
+      <c r="F48">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E47">
+      <c r="G48">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>32</v>
       </c>
-      <c r="B48">
+      <c r="D49">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="E49">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D48">
+      <c r="F49">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E48">
+      <c r="G49">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>23</v>
       </c>
-      <c r="B49">
+      <c r="D50">
         <v>9</v>
       </c>
-      <c r="C49">
+      <c r="E50">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D49">
+      <c r="F50">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E49">
+      <c r="G50">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>17</v>
       </c>
-      <c r="B50">
+      <c r="D51">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="E51">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D50">
+      <c r="F51">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E50">
+      <c r="G51">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>24</v>
       </c>
-      <c r="B51">
+      <c r="D52">
         <v>9</v>
       </c>
-      <c r="C51">
+      <c r="E52">
         <f t="shared" ca="1" si="2"/>
         <v>14.25</v>
       </c>
-      <c r="D51">
+      <c r="F52">
         <f t="shared" ca="1" si="3"/>
         <v>24.75</v>
       </c>
-      <c r="E51">
+      <c r="G52">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D60" t="s">
         <v>44</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E60" t="s">
         <v>60</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F60" t="s">
         <v>59</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>12</v>
       </c>
-      <c r="B60">
+      <c r="D61">
         <v>18</v>
       </c>
-      <c r="C60">
-        <f t="shared" ref="C60:C68" ca="1" si="4">_xlfn.QUARTILE.INC(B60:E60,1)</f>
+      <c r="E61">
+        <f t="shared" ref="E61:E69" ca="1" si="4">_xlfn.QUARTILE.INC(D61:G61,1)</f>
         <v>22.25</v>
       </c>
-      <c r="D60">
-        <f t="shared" ref="D60:D68" ca="1" si="5">_xlfn.QUARTILE.INC(B60:E60,3)</f>
+      <c r="F61">
+        <f t="shared" ref="F61:F69" ca="1" si="5">_xlfn.QUARTILE.INC(D61:G61,3)</f>
         <v>30.75</v>
       </c>
-      <c r="E60">
+      <c r="G61">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>21</v>
       </c>
-      <c r="B61">
+      <c r="D62">
         <v>18</v>
       </c>
-      <c r="C61">
+      <c r="E62">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D61">
+      <c r="F62">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E61">
+      <c r="G62">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>26</v>
       </c>
-      <c r="B62">
+      <c r="D63">
         <v>18</v>
       </c>
-      <c r="C62">
+      <c r="E63">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D62">
+      <c r="F63">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E62">
+      <c r="G63">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>29</v>
       </c>
-      <c r="B63">
+      <c r="D64">
         <v>18</v>
       </c>
-      <c r="C63">
+      <c r="E64">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D63">
+      <c r="F64">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E63">
+      <c r="G64">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>27</v>
       </c>
-      <c r="B64">
+      <c r="D65">
         <v>18</v>
       </c>
-      <c r="C64">
+      <c r="E65">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D64">
+      <c r="F65">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E64">
+      <c r="G65">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>32</v>
       </c>
-      <c r="B65">
+      <c r="D66">
         <v>18</v>
       </c>
-      <c r="C65">
+      <c r="E66">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D65">
+      <c r="F66">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E65">
+      <c r="G66">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>35</v>
       </c>
-      <c r="B66">
+      <c r="D67">
         <v>18</v>
       </c>
-      <c r="C66">
+      <c r="E67">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D66">
+      <c r="F67">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E66">
+      <c r="G67">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>38</v>
       </c>
-      <c r="B67">
+      <c r="D68">
         <v>18</v>
       </c>
-      <c r="C67">
+      <c r="E68">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D67">
+      <c r="F68">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E67">
+      <c r="G68">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>24.5</v>
       </c>
-      <c r="B68">
+      <c r="D69">
         <v>18</v>
       </c>
-      <c r="C68">
+      <c r="E69">
         <f t="shared" ca="1" si="4"/>
         <v>22.25</v>
       </c>
-      <c r="D68">
+      <c r="F69">
         <f t="shared" ca="1" si="5"/>
         <v>30.75</v>
       </c>
-      <c r="E68">
+      <c r="G69">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>58</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D78" t="s">
         <v>44</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E78" t="s">
         <v>60</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F78" t="s">
         <v>59</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G78" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>12</v>
       </c>
-      <c r="B78">
+      <c r="D79">
         <v>8</v>
       </c>
-      <c r="C78">
-        <f t="shared" ref="C78:C86" ca="1" si="6">_xlfn.QUARTILE.INC(B78:E78,1)</f>
+      <c r="E79">
+        <f t="shared" ref="E79:E87" ca="1" si="6">_xlfn.QUARTILE.INC(D79:G79,1)</f>
         <v>12</v>
       </c>
-      <c r="D78">
-        <f t="shared" ref="D78:D86" ca="1" si="7">_xlfn.QUARTILE.INC(B78:E78,3)</f>
+      <c r="F79">
+        <f t="shared" ref="F79:F87" ca="1" si="7">_xlfn.QUARTILE.INC(D79:G79,3)</f>
         <v>20</v>
       </c>
-      <c r="E78">
+      <c r="G79">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>21</v>
       </c>
-      <c r="B79">
+      <c r="D80">
         <v>8</v>
       </c>
-      <c r="C79">
+      <c r="E80">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D79">
+      <c r="F80">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E79">
+      <c r="G80">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>26</v>
       </c>
-      <c r="B80">
+      <c r="D81">
         <v>8</v>
       </c>
-      <c r="C80">
+      <c r="E81">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D80">
+      <c r="F81">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E80">
+      <c r="G81">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>19</v>
       </c>
-      <c r="B81">
+      <c r="D82">
         <v>8</v>
       </c>
-      <c r="C81">
+      <c r="E82">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D81">
+      <c r="F82">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E81">
+      <c r="G82">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>17</v>
       </c>
-      <c r="B82">
+      <c r="D83">
         <v>8</v>
       </c>
-      <c r="C82">
+      <c r="E83">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D82">
+      <c r="F83">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E82">
+      <c r="G83">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84">
         <v>32</v>
       </c>
-      <c r="B83">
+      <c r="D84">
         <v>8</v>
       </c>
-      <c r="C83">
+      <c r="E84">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D83">
+      <c r="F84">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E83">
+      <c r="G84">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85">
         <v>25</v>
       </c>
-      <c r="B84">
+      <c r="D85">
         <v>8</v>
       </c>
-      <c r="C84">
+      <c r="E85">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D84">
+      <c r="F85">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E84">
+      <c r="G85">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>30</v>
       </c>
-      <c r="B85">
+      <c r="D86">
         <v>8</v>
       </c>
-      <c r="C85">
+      <c r="E86">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D85">
+      <c r="F86">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E85">
+      <c r="G86">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>22.5</v>
       </c>
-      <c r="B86">
+      <c r="D87">
         <v>8</v>
       </c>
-      <c r="C86">
+      <c r="E87">
         <f t="shared" ca="1" si="6"/>
         <v>12</v>
       </c>
-      <c r="D86">
+      <c r="F87">
         <f t="shared" ca="1" si="7"/>
         <v>20</v>
       </c>
-      <c r="E86">
+      <c r="G87">
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>58</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D94" t="s">
         <v>44</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E94" t="s">
         <v>60</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F94" t="s">
         <v>59</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G94" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95">
         <v>12</v>
       </c>
-      <c r="B94">
+      <c r="D95">
         <v>15</v>
       </c>
-      <c r="C94">
-        <f t="shared" ref="C94:C102" ca="1" si="8">_xlfn.QUARTILE.INC(B94:E94,1)</f>
+      <c r="E95">
+        <f t="shared" ref="E95:E103" ca="1" si="8">_xlfn.QUARTILE.INC(D95:G95,1)</f>
         <v>20</v>
       </c>
-      <c r="D94">
-        <f t="shared" ref="D94:D102" ca="1" si="9">_xlfn.QUARTILE.INC(B94:E94,3)</f>
+      <c r="F95">
+        <f t="shared" ref="F95:F103" ca="1" si="9">_xlfn.QUARTILE.INC(D95:G95,3)</f>
         <v>30</v>
       </c>
-      <c r="E94">
+      <c r="G95">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>21</v>
       </c>
-      <c r="B95">
+      <c r="D96">
         <v>15</v>
       </c>
-      <c r="C95">
+      <c r="E96">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D95">
+      <c r="F96">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E95">
+      <c r="G96">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
         <v>26</v>
       </c>
-      <c r="B96">
+      <c r="D97">
         <v>15</v>
       </c>
-      <c r="C96">
+      <c r="E97">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D96">
+      <c r="F97">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E96">
+      <c r="G97">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98">
         <v>24</v>
       </c>
-      <c r="B97">
+      <c r="D98">
         <v>15</v>
       </c>
-      <c r="C97">
+      <c r="E98">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D97">
+      <c r="F98">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E97">
+      <c r="G98">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99">
         <v>17</v>
       </c>
-      <c r="B98">
+      <c r="D99">
         <v>15</v>
       </c>
-      <c r="C98">
+      <c r="E99">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D98">
+      <c r="F99">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E98">
+      <c r="G99">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
         <v>32</v>
       </c>
-      <c r="B99">
+      <c r="D100">
         <v>15</v>
       </c>
-      <c r="C99">
+      <c r="E100">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D99">
+      <c r="F100">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E99">
+      <c r="G100">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
         <v>25</v>
       </c>
-      <c r="B100">
+      <c r="D101">
         <v>15</v>
       </c>
-      <c r="C100">
+      <c r="E101">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D100">
+      <c r="F101">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E100">
+      <c r="G101">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102">
         <v>30</v>
       </c>
-      <c r="B101">
+      <c r="D102">
         <v>15</v>
       </c>
-      <c r="C101">
+      <c r="E102">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D101">
+      <c r="F102">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E101">
+      <c r="G102">
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103">
         <v>24.5</v>
       </c>
-      <c r="B102">
+      <c r="D103">
         <v>15</v>
       </c>
-      <c r="C102">
+      <c r="E103">
         <f t="shared" ca="1" si="8"/>
         <v>20</v>
       </c>
-      <c r="D102">
+      <c r="F103">
         <f t="shared" ca="1" si="9"/>
         <v>30</v>
       </c>
-      <c r="E102">
+      <c r="G103">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="I3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
